--- a/plantilla_BD.xlsx
+++ b/plantilla_BD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amsconsultorescl-my.sharepoint.com/personal/hugo_vasquez_amsconsultores_cl/Documents/Documentos/AMS/Proyectos/AMS App/fastapi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hugo\OneDrive - AMS CONSULTORES SPA\Documentos\AMS\Proyectos\AMS App\fastapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{DF15994B-7331-49AA-B84F-41FF93325226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4F8D715-39A6-4ACE-9D96-97B8DBD2119F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBF6294-093D-4451-9446-2A1BF009FBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5010AC51-2D55-4C7B-B51C-84300561F722}"/>
+    <workbookView xWindow="-28920" yWindow="1920" windowWidth="29040" windowHeight="15720" xr2:uid="{5010AC51-2D55-4C7B-B51C-84300561F722}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>Reino</t>
   </si>
   <si>
-    <t>Filo o división</t>
-  </si>
-  <si>
     <t>Clase</t>
   </si>
   <si>
@@ -42,15 +39,6 @@
     <t>Familia</t>
   </si>
   <si>
-    <t>Género</t>
-  </si>
-  <si>
-    <t>Epíteto específico</t>
-  </si>
-  <si>
-    <t>Nombre común</t>
-  </si>
-  <si>
     <t>Plantae</t>
   </si>
   <si>
@@ -148,6 +136,18 @@
   </si>
   <si>
     <t>RELLENO</t>
+  </si>
+  <si>
+    <t>Nombre_comun</t>
+  </si>
+  <si>
+    <t>Genero</t>
+  </si>
+  <si>
+    <t>Epiteto_especifico</t>
+  </si>
+  <si>
+    <t>Filo_o_division</t>
   </si>
 </sst>
 </file>
@@ -548,7 +548,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,467 +558,467 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H8" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H12" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="H17" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="H18" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/plantilla_BD.xlsx
+++ b/plantilla_BD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hugo\OneDrive - AMS CONSULTORES SPA\Documentos\AMS\Proyectos\AMS App\fastapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBF6294-093D-4451-9446-2A1BF009FBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86865016-27E2-44D0-9275-B3E48CE15137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1920" windowWidth="29040" windowHeight="15720" xr2:uid="{5010AC51-2D55-4C7B-B51C-84300561F722}"/>
   </bookViews>
@@ -27,18 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="41">
   <si>
-    <t>Reino</t>
-  </si>
-  <si>
-    <t>Clase</t>
-  </si>
-  <si>
-    <t>Orden</t>
-  </si>
-  <si>
-    <t>Familia</t>
-  </si>
-  <si>
     <t>Plantae</t>
   </si>
   <si>
@@ -138,16 +126,28 @@
     <t>RELLENO</t>
   </si>
   <si>
-    <t>Nombre_comun</t>
-  </si>
-  <si>
-    <t>Genero</t>
-  </si>
-  <si>
-    <t>Epiteto_especifico</t>
-  </si>
-  <si>
-    <t>Filo_o_division</t>
+    <t>filo_o_division</t>
+  </si>
+  <si>
+    <t>reino</t>
+  </si>
+  <si>
+    <t>clase</t>
+  </si>
+  <si>
+    <t>orden</t>
+  </si>
+  <si>
+    <t>familia</t>
+  </si>
+  <si>
+    <t>genero</t>
+  </si>
+  <si>
+    <t>epiteto_especifico</t>
+  </si>
+  <si>
+    <t>nombre_comun</t>
   </si>
 </sst>
 </file>
@@ -548,26 +548,26 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>38</v>
@@ -576,449 +576,449 @@
         <v>39</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="H8" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="H12" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H13" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H17" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H18" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
